--- a/res.xlsx
+++ b/res.xlsx
@@ -19,9 +19,6 @@
     <t>file</t>
   </si>
   <si>
-    <t>txt</t>
-  </si>
-  <si>
     <t>my cpp</t>
   </si>
   <si>
@@ -35,6 +32,9 @@
   </si>
   <si>
     <t>my par</t>
+  </si>
+  <si>
+    <t>rand</t>
   </si>
 </sst>
 </file>
@@ -345,7 +345,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$10:$A$15</c:f>
+              <c:f>Лист1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -407,7 +407,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$10:$A$15</c:f>
+              <c:f>Лист1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -469,7 +469,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$10:$A$15</c:f>
+              <c:f>Лист1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -517,6 +517,68 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4.6633000000000004E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>my par</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3534</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$F$2:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.2299999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5213E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0675999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0809999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2986999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2399E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -533,11 +595,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="191276160"/>
-        <c:axId val="191278080"/>
+        <c:axId val="196826624"/>
+        <c:axId val="196828544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="191276160"/>
+        <c:axId val="196826624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -571,7 +633,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191278080"/>
+        <c:crossAx val="196828544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -579,7 +641,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="191278080"/>
+        <c:axId val="196828544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -609,7 +671,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191276160"/>
+        <c:crossAx val="196826624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -660,7 +722,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>txt </a:t>
+              <a:t>rand </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU"/>
@@ -936,11 +998,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="192046976"/>
-        <c:axId val="192049152"/>
+        <c:axId val="196749568"/>
+        <c:axId val="196764032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="192046976"/>
+        <c:axId val="196749568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -969,7 +1031,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192049152"/>
+        <c:crossAx val="196764032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -977,7 +1039,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192049152"/>
+        <c:axId val="196764032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1007,7 +1069,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192046976"/>
+        <c:crossAx val="196749568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1428,11 +1490,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="192369792"/>
-        <c:axId val="192371712"/>
+        <c:axId val="197203456"/>
+        <c:axId val="197205376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="192369792"/>
+        <c:axId val="197203456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1461,7 +1523,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192371712"/>
+        <c:crossAx val="197205376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1469,7 +1531,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192371712"/>
+        <c:axId val="197205376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1499,7 +1561,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192369792"/>
+        <c:crossAx val="197203456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1778,11 +1840,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="192407424"/>
-        <c:axId val="192417792"/>
+        <c:axId val="197236992"/>
+        <c:axId val="197251456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="192407424"/>
+        <c:axId val="197236992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1811,7 +1873,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192417792"/>
+        <c:crossAx val="197251456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1819,7 +1881,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192417792"/>
+        <c:axId val="197251456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1849,7 +1911,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192407424"/>
+        <c:crossAx val="197236992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2286,7 +2348,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F2:F7"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2296,19 +2358,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2408,7 +2470,7 @@
         <v>0.56423400000000001</v>
       </c>
       <c r="F6">
-        <v>3.1319999999999998E-3</v>
+        <v>2.2986999999999999E-3</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2428,12 +2490,12 @@
         <v>22.241499999999998</v>
       </c>
       <c r="F7">
-        <v>1.76925E-2</v>
+        <v>3.2399E-3</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6">
